--- a/data_excel/接口测试用例_ (6).xlsx
+++ b/data_excel/接口测试用例_ (6).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 09:42:55', 'context': '查无结果', 'ftime': '2019-09-05 09:42:55'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 01:51:59', 'ftime': '2019-09-29 01:51:59', 'context': '到达【长沙中心】（经转）', 'location': ''}, {'time': '2019-09-28 22:06:24', 'ftime': '2019-09-28 22:06:24', 'context': '离开【邮政湘潭市网运邮处中心】,下一站【长沙中心】', 'location': ''}, {'time': '2019-09-28 18:49:31', 'ftime': '2019-09-28 18:49:31', 'context': '到达【邮政湘潭市网运邮处中心】', 'location': ''}, {'time': '2019-09-28 17:36:23', 'ftime': '2019-09-28 17:36:23', 'context': '离开【湘潭大宗收寄】,下一站【湘潭分拣】', 'location': ''}, {'time': '2019-09-28 15:31:19', 'ftime': '2019-09-28 15:31:19', 'context': '【湘潭大宗收寄】已收件,揽投员:张依,电话:14789537364', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.067035</v>
+        <v>0.07376000000000001</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009872000000000001</v>
+        <v>0.010288</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 01:20:19', 'ftime': '2019-09-29 01:20:19', 'context': '广东深圳福田转运中心-已装袋发往-云南昆明转运中心', 'location': ''}, {'time': '2019-09-29 01:20:19', 'ftime': '2019-09-29 01:20:19', 'context': '广东深圳福田转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-29 00:57:39', 'ftime': '2019-09-29 00:57:39', 'context': '广东深圳福田转运中心-已发往-云南昆明转运中心', 'location': ''}, {'time': '2019-09-29 00:57:39', 'ftime': '2019-09-29 00:57:39', 'context': '广东深圳福田转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-29 00:39:24', 'ftime': '2019-09-29 00:39:24', 'context': '已到达-广东深圳福田转运中心', 'location': ''}, {'time': '2019-09-28 21:41:29', 'ftime': '2019-09-28 21:41:29', 'context': '广东宝安凤凰岗公司-何志伟(13689585806,0755-66820999)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 10:29:34', 'ftime': '2019-09-28 10:29:34', 'context': '离开【邮政徐州市邮件处理分局】,下一站【柳州市邮件处理中心】 徐州市', 'location': ''}, {'time': '2019-09-26 18:19:42', 'ftime': '2019-09-26 18:19:42', 'context': '到达【邮政徐州市邮件处理分局】 徐州市', 'location': ''}, {'time': '2019-09-26 18:02:10', 'ftime': '2019-09-26 18:02:10', 'context': '徐州市 离开【江苏省新沂市寄递事业部大宗邮件收寄中心】,下一站【徐州枢纽】', 'location': ''}, {'time': '2019-09-26 11:11:56', 'ftime': '2019-09-26 11:11:56', 'context': '徐州市 【江苏省新沂市寄递事业部大宗邮件收寄中心】已收件,揽投员:姜磊,电话:13952288818', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.069894</v>
+        <v>0.071452</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009923</v>
+        <v>0.011148</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 02:46:04', 'ftime': '2019-09-29 02:46:04', 'context': '快件已正常签收', 'location': '长春服务保障系统'}, {'time': '2019-09-28 06:44:06', 'ftime': '2019-09-28 06:44:06', 'context': '【长春市】 【南关一部】 的王冰（15044159091） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-28 06:30:32', 'ftime': '2019-09-28 06:30:32', 'context': '【长春市】 快件已经到达 【南关一部】', 'location': ''}, {'time': '2019-09-27 15:39:03', 'ftime': '2019-09-27 15:39:03', 'context': '快件未签收，原因是【超区】', 'location': '长春服务保障系统'}, {'time': '2019-09-27 15:31:55', 'ftime': '2019-09-27 15:31:55', 'context': '【长春市】 快件离开 【长春中转】 已发往 【南关一部】', 'location': ''}, {'time': '2019-09-27 15:23:17', 'ftime': '2019-09-27 15:23:17', 'context': '【长春市】 快件已经到达 【长春中转】', 'location': ''}, {'time': '2019-09-27 13:14:50', 'ftime': '2019-09-27 13:14:50', 'context': '【长春市】 【长春市场部】（15104300559） 的 小蜜蜂（19990551705） 已揽收', 'location': ''}, {'time': '2019-09-27 09:19:50', 'ftime': '2019-09-27 09:19:50', 'context': '[长春服务保障系统]的【转同行隔日派送81775890】正在派件, 电话：17743198837', 'location': '长春服务保障系统'}, {'time': '2019-09-27 09:14:50', 'ftime': '2019-09-27 09:14:50', 'context': '快件已到达[长春服务保障系统],上一站是[长春快递分拨中心]', 'location': '长春服务保障系统'}, {'time': '2019-09-27 02:04:45', 'ftime': '2019-09-27 02:04:45', 'context': '快件已由[长春快递分拨中心]发往[长春服务保障系统]', 'location': '长春快递分拨中心'}, {'time': '2019-09-26 06:45:19', 'ftime': '2019-09-26 06:45:19', 'context': '快件已到达[长春快递分拨中心],上一站是[哈尔滨分拨中心]', 'location': '长春快递分拨中心'}, {'time': '2019-09-26 06:45:19', 'ftime': '2019-09-26 06:45:19', 'context': '[长春快递分拨中心]【长春单长宏】正在进行拆袋扫描', 'location': '长春快递分拨中心'}, {'time': '2019-09-26 06:31:27', 'ftime': '2019-09-26 06:31:27', 'context': '快件已到达[长春快递分拨中心],上一站是[哈尔滨分拨中心]', 'location': '长春快递分拨中心'}, {'time': '2019-09-26 00:51:24', 'ftime': '2019-09-26 00:51:24', 'context': '快件已由[哈尔滨分拨中心]发往[长春快递分拨中心]', 'location': '哈尔滨分拨中心'}, {'time': '2019-09-25 22:47:16', 'ftime': '2019-09-25 22:47:16', 'context': '[哈尔滨分拨中心]【刘玉凤】正在进行装袋扫描', 'location': '哈尔滨分拨中心'}, {'time': '2019-09-25 19:50:45', 'ftime': '2019-09-25 19:50:45', 'context': '快件已到达[哈尔滨分拨中心],上一站是[开发区二部]', 'location': '哈尔滨分拨中心'}, {'time': '2019-09-25 17:41:42', 'ftime': '2019-09-25 17:41:42', 'context': '快件已由[开发区二部]发往[哈尔滨分拨中心]', 'location': '开发区二部'}, {'time': '2019-09-25 16:52:23', 'ftime': '2019-09-25 16:52:23', 'context': '[开发区二部]【王海波】已收件', 'location': '开发区二部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-15 11:55:53', 'ftime': '2019-09-15 11:55:53', 'context': '已签收,签收人是（071****9758）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员杨世明(15342309525,0710-6799758)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-15 08:39:54', 'ftime': '2019-09-15 08:39:54', 'context': '湖北枣阳公司-杨世明(15342309525,0710-6799758)-派件中', 'location': ''}, {'time': '2019-09-15 08:06:07', 'ftime': '2019-09-15 08:06:07', 'context': '已到达-湖北枣阳公司', 'location': ''}, {'time': '2019-09-15 07:54:54', 'ftime': '2019-09-15 07:54:54', 'context': '已到达-湖北枣阳公司', 'location': ''}, {'time': '2019-09-14 12:13:45', 'ftime': '2019-09-14 12:13:45', 'context': '湖北襄阳转运中心-已发往-湖北枣阳公司', 'location': ''}, {'time': '2019-09-14 12:13:45', 'ftime': '2019-09-14 12:13:45', 'context': '湖北襄阳转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-14 11:57:11', 'ftime': '2019-09-14 11:57:11', 'context': '已到达-湖北襄阳转运中心', 'location': ''}, {'time': '2019-09-14 05:38:58', 'ftime': '2019-09-14 05:38:58', 'context': '湖北武汉转运中心-已装袋发往-湖北襄阳转运中心', 'location': ''}, {'time': '2019-09-14 05:38:58', 'ftime': '2019-09-14 05:38:58', 'context': '湖北武汉转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-14 05:37:18', 'ftime': '2019-09-14 05:37:18', 'context': '已到达-湖北武汉转运中心', 'location': ''}, {'time': '2019-09-14 05:37:18', 'ftime': '2019-09-14 05:37:18', 'context': '快件已在【湖北武汉转运中心】进行卸车，扫描员【二号库卸货4】', 'location': ''}, {'time': '2019-09-12 19:45:59', 'ftime': '2019-09-12 19:45:59', 'context': '广东佛山转运中心-已装袋发往-湖北武汉转运中心', 'location': ''}, {'time': '2019-09-12 19:45:59', 'ftime': '2019-09-12 19:45:59', 'context': '广东佛山转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-12 19:37:16', 'ftime': '2019-09-12 19:37:16', 'context': '广东佛山转运中心-已发往-湖北武汉转运中心', 'location': ''}, {'time': '2019-09-12 19:37:16', 'ftime': '2019-09-12 19:37:16', 'context': '广东佛山转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-12 19:23:15', 'ftime': '2019-09-12 19:23:15', 'context': '已到达-广东佛山转运中心', 'location': ''}, {'time': '2019-09-12 04:44:33', 'ftime': '2019-09-12 04:44:33', 'context': '广东佛山公司--已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07288600000000001</v>
+        <v>0.068442</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.011322</v>
+        <v>0.009919000000000001</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 23:45:08', 'ftime': '2019-09-28 23:45:08', 'context': '[潍坊市]快件已发车', 'location': '潍坊市'}, {'time': '2019-09-28 17:20:51', 'ftime': '2019-09-28 17:20:51', 'context': '[潍坊市]快件在【潍坊宝通集散中心】已装车,准备发往下一站', 'location': '潍坊市'}, {'time': '2019-09-28 17:20:41', 'ftime': '2019-09-28 17:20:41', 'context': '[潍坊市]顺丰速运 已收取快件', 'location': '潍坊市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:00:18', 'ftime': '2019-09-29 09:00:18', 'context': '【山东省烟台市招远市公司】 派件中 派件人: 郭峰 电话 13188792064 如有疑问，请联系：0535-8216616', 'location': ''}, {'time': '2019-09-29 08:53:06', 'ftime': '2019-09-29 08:53:06', 'context': '【山东省烟台市招远市公司】 已收入', 'location': ''}, {'time': '2019-09-28 09:30:22', 'ftime': '2019-09-28 09:30:22', 'context': '【潍坊转运中心】 已发出 下一站 【山东省烟台市招远市】', 'location': ''}, {'time': '2019-09-28 09:07:36', 'ftime': '2019-09-28 09:07:36', 'context': '【潍坊转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 02:16:07', 'ftime': '2019-09-28 02:16:07', 'context': '【济南转运中心】 已发出 下一站 【潍坊转运中心】', 'location': ''}, {'time': '2019-09-28 02:14:55', 'ftime': '2019-09-28 02:14:55', 'context': '【济南转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 19:46:16', 'ftime': '2019-09-27 19:46:16', 'context': '【山东省泰安市】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-09-27 19:32:07', 'ftime': '2019-09-27 19:32:07', 'context': '【山东省泰安市公司】 已打包', 'location': ''}, {'time': '2019-09-27 14:26:49', 'ftime': '2019-09-27 14:26:49', 'context': '【山东省泰安市公司】 已收件 取件人: 龚舒翔 (18853810678)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.067706</v>
+        <v>0.068707</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.008397</v>
+        <v>0.010641</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-07 09:42:56', 'context': '查无结果', 'ftime': '2019-09-07 09:42:56'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 11:35:51', 'ftime': '2019-09-28 11:35:51', 'context': '【郑州转运中心】 已发出 下一站 【呼和浩特转运中心】', 'location': ''}, {'time': '2019-09-28 11:30:05', 'ftime': '2019-09-28 11:30:05', 'context': '【郑州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 22:37:52', 'ftime': '2019-09-27 22:37:52', 'context': '【武昌转运中心】 已发出 下一站 【郑州转运中心】', 'location': ''}, {'time': '2019-09-27 22:33:16', 'ftime': '2019-09-27 22:33:16', 'context': '【武昌转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 16:15:02', 'ftime': '2019-09-27 16:15:02', 'context': '【湖北省咸宁市崇阳县】 已发出 下一站 【武昌转运中心】', 'location': ''}, {'time': '2019-09-27 16:13:49', 'ftime': '2019-09-27 16:13:49', 'context': '【湖北省咸宁市崇阳县公司】 已收件 取件人: 刘学 (18372722570)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.063583</v>
+        <v>0.072988</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010528</v>
+        <v>0.009128000000000001</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-27 21:27:01', 'ftime': '2019-09-27 21:27:01', 'context': '[河北石家庄公司]进行揽件扫描', 'location': '河北石家庄公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:25:02', 'ftime': '2019-09-29 08:25:02', 'context': '[广西北海公司]到达目的地网点，快件很快进行派送', 'location': '广西北海公司'}, {'time': '2019-09-28 15:41:20', 'ftime': '2019-09-28 15:41:20', 'context': '[广西北海公司]进行揽件扫描', 'location': '广西北海公司'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.074101</v>
+        <v>0.072977</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.01107</v>
+        <v>0.008840000000000001</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:02:18', 'ftime': '2019-09-29 08:02:18', 'context': '[武汉市]武汉武昌水果湖】安排投递,投递员:梅志洪,电话:15072444122', 'location': None}, {'time': '2019-09-29 07:43:15', 'ftime': '2019-09-29 07:43:15', 'context': '[武汉市]到达【武汉武昌水果湖】', 'location': None}, {'time': '2019-09-29 04:55:21', 'ftime': '2019-09-29 04:55:21', 'context': '[武汉市]离开【武汉中心】,下一站【武汉武昌水果湖】', 'location': None}, {'time': '2019-09-28 17:54:02', 'ftime': '2019-09-28 17:54:02', 'context': '[武汉市]离开【武汉硚口妙墩】,下一站【武汉分拨】', 'location': None}, {'time': '2019-09-26 21:15:45', 'ftime': '2019-09-26 21:15:45', 'context': '[武汉市]到达【武汉中心】', 'location': None}, {'time': '2019-09-26 18:18:21', 'ftime': '2019-09-26 18:18:21', 'context': '[武汉市]离开【武汉硚口妙墩】,下一站【武汉分拨】', 'location': None}, {'time': '2019-09-26 17:42:41', 'ftime': '2019-09-26 17:42:41', 'context': '[武汉市]【武汉硚口妙墩】已收件,揽投员:CBD詹海莲,电话:18302792849', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:03:51', 'ftime': '2019-09-29 09:03:51', 'context': '【烟台市】 快件离开 【龙口】 已发往 【龙口海岱镇】', 'location': ''}, {'time': '2019-09-29 07:09:52', 'ftime': '2019-09-29 07:09:52', 'context': '【烟台市】 快件已经到达 【龙口】', 'location': ''}, {'time': '2019-09-29 02:27:02', 'ftime': '2019-09-29 02:27:02', 'context': '【青岛市】 快件离开 【莱阳中转】 已发往 【龙口】', 'location': ''}, {'time': '2019-09-29 01:16:29', 'ftime': '2019-09-29 01:16:29', 'context': '【青岛市】 快件已经到达 【莱阳中转】', 'location': ''}, {'time': '2019-09-28 16:42:26', 'ftime': '2019-09-28 16:42:26', 'context': '【潍坊市】 快件离开 【潍坊中转部】 已发往 【莱阳中转】', 'location': ''}, {'time': '2019-09-28 16:35:40', 'ftime': '2019-09-28 16:35:40', 'context': '【潍坊市】 快件已经到达 【潍坊中转部】', 'location': ''}, {'time': '2019-09-27 03:26:00', 'ftime': '2019-09-27 03:26:00', 'context': '【南宁市】 快件离开 【南宁中转】 已发往 【潍坊中转部】', 'location': ''}, {'time': '2019-09-27 03:22:39', 'ftime': '2019-09-27 03:22:39', 'context': '【南宁市】 快件已经到达 【南宁中转】', 'location': ''}, {'time': '2019-09-26 19:31:01', 'ftime': '2019-09-26 19:31:01', 'context': '【南宁市】 快件离开 【南宁奥园分部】 已发往 【南宁中转】', 'location': ''}, {'time': '2019-09-26 19:30:56', 'ftime': '2019-09-26 19:30:56', 'context': '【南宁市】 【南宁奥园分部】（0771-4872920） 的 赵富群（13877302747） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.07026</v>
+        <v>0.068217</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.01035</v>
+        <v>0.008869</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-17 09:42:56', 'context': '查无结果', 'ftime': '2019-09-17 09:42:56'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 18:43:04', 'ftime': '2019-09-27 18:43:04', 'context': '已签收,他人代收,投递员:叶风,电话:18367175475', 'location': None}, {'time': '2019-09-27 16:26:42', 'ftime': '2019-09-27 16:26:42', 'context': '【临安市处理中心】安排投递,投递员:叶风,电话:18367175475', 'location': None}, {'time': '2019-09-27 13:05:22', 'ftime': '2019-09-27 13:05:22', 'context': '到达【临安市处理中心】（经转）', 'location': None}, {'time': '2019-09-27 11:33:41', 'ftime': '2019-09-27 11:33:41', 'context': '离开【杭州中心】，下一站【临安市处理中心】（经转）', 'location': None}, {'time': '2019-09-27 08:12:12', 'ftime': '2019-09-27 08:12:12', 'context': '到达【杭州中心】（经转）', 'location': None}, {'time': '2019-09-26 20:19:11', 'ftime': '2019-09-26 20:19:11', 'context': '到达【南宁中心】（经转）', 'location': None}, {'time': '2019-09-26 17:09:52', 'ftime': '2019-09-26 17:09:52', 'context': '离开【南宁市新华街揽投部】，下一站【南宁中心】', 'location': None}, {'time': '2019-09-26 03:54:11', 'ftime': '2019-09-26 03:54:11', 'context': '离开【南宁中心】，下一站【杭州中心】（经转）', 'location': None}, {'time': '2019-09-25 18:47:18', 'ftime': '2019-09-25 18:47:18', 'context': '【南宁市新华街揽投部】已收件,揽投员:韦坚', 'location': None}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.06325500000000001</v>
+        <v>0.074855</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.013046</v>
+        <v>0.011039</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 12:51:43', 'ftime': '2019-09-27 12:51:43', 'context': '【上海市】 快件已由【丰巢的罗森宝商务中心(丰巢智能快递柜)】代签收, 如有问题请电联（18964712657 / 4000633333,18964712657）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-09-27 07:45:07', 'ftime': '2019-09-27 07:45:07', 'context': '【上海市】 【罗店】 的孙志（18964712657） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-27 07:43:18', 'ftime': '2019-09-27 07:43:18', 'context': '【上海市】 快件已经到达 【罗店】', 'location': ''}, {'time': '2019-09-26 19:41:58', 'ftime': '2019-09-26 19:41:58', 'context': '【上海市】 快件离开 【上海】 已发往 【罗店】', 'location': ''}, {'time': '2019-09-26 19:41:29', 'ftime': '2019-09-26 19:41:29', 'context': '【上海市】 快件已经到达 【上海】', 'location': ''}, {'time': '2019-09-26 01:35:16', 'ftime': '2019-09-26 01:35:16', 'context': '【郑州市】 快件离开 【郑州中转】 已发往 【上海】', 'location': ''}, {'time': '2019-09-26 01:34:46', 'ftime': '2019-09-26 01:34:46', 'context': '【郑州市】 快件已经到达 【郑州中转】', 'location': ''}, {'time': '2019-09-25 20:14:50', 'ftime': '2019-09-25 20:14:50', 'context': '【郑州市】 【郑州市场部】（0371-61860123） 的 蚂蚁仓网（15093370779） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 10:07:13', 'context': '查无结果', 'ftime': '2019-09-19 10:07:13'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.075476</v>
+        <v>0.068651</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010247</v>
+        <v>0.009443999999999999</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (6).xlsx
+++ b/data_excel/接口测试用例_ (6).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 01:51:59', 'ftime': '2019-09-29 01:51:59', 'context': '到达【长沙中心】（经转）', 'location': ''}, {'time': '2019-09-28 22:06:24', 'ftime': '2019-09-28 22:06:24', 'context': '离开【邮政湘潭市网运邮处中心】,下一站【长沙中心】', 'location': ''}, {'time': '2019-09-28 18:49:31', 'ftime': '2019-09-28 18:49:31', 'context': '到达【邮政湘潭市网运邮处中心】', 'location': ''}, {'time': '2019-09-28 17:36:23', 'ftime': '2019-09-28 17:36:23', 'context': '离开【湘潭大宗收寄】,下一站【湘潭分拣】', 'location': ''}, {'time': '2019-09-28 15:31:19', 'ftime': '2019-09-28 15:31:19', 'context': '【湘潭大宗收寄】已收件,揽投员:张依,电话:14789537364', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:53:00', 'ftime': '2019-09-29 09:53:00', 'context': '[西安市/咸阳市]快件到达【西安】，准备发往【西安总集散中心】', 'location': '西安市/咸阳市'}, {'time': '2019-09-29 08:11:00', 'ftime': '2019-09-29 08:11:00', 'context': '[常州市]快件在【常州飞往西安航班上】已起飞', 'location': '常州市'}, {'time': '2019-09-29 04:56:16', 'ftime': '2019-09-29 04:56:16', 'context': '[常州市]快件在【常州总集散中心】已装车,准备发往 【西安总集散中心】', 'location': '常州市'}, {'time': '2019-09-29 01:14:45', 'ftime': '2019-09-29 01:14:45', 'context': '[常州市]快件到达 【常州总集散中心】', 'location': '常州市'}, {'time': '2019-09-28 20:41:21', 'ftime': '2019-09-28 20:41:21', 'context': '[苏州市]快件已发车', 'location': '苏州市'}, {'time': '2019-09-28 19:18:52', 'ftime': '2019-09-28 19:18:52', 'context': '[苏州市]快件在【苏州阳澄湖大闸蟹临时集散点】已装车,准备发往 【上海虹桥集散中心】', 'location': '苏州市'}, {'time': '2019-09-28 16:46:44', 'ftime': '2019-09-28 16:46:44', 'context': '[苏州市]快件到达 【苏州阳澄湖大闸蟹临时集散点】', 'location': '苏州市'}, {'time': '2019-09-28 16:13:23', 'ftime': '2019-09-28 16:13:23', 'context': '[苏州市]快件已发车', 'location': '苏州市'}, {'time': '2019-09-28 16:07:36', 'ftime': '2019-09-28 16:07:36', 'context': '快件在【苏州市工业园浅水湾大闸蟹营业点】已装车,准备发往下一站', 'location': '苏州市'}, {'time': '2019-09-28 15:07:14', 'ftime': '2019-09-28 15:07:14', 'context': '[苏州市]顺丰速运 已收取快件', 'location': '苏州市'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.07376000000000001</v>
+        <v>0.07174800000000001</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.010288</v>
+        <v>0.010723</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 10:29:34', 'ftime': '2019-09-28 10:29:34', 'context': '离开【邮政徐州市邮件处理分局】,下一站【柳州市邮件处理中心】 徐州市', 'location': ''}, {'time': '2019-09-26 18:19:42', 'ftime': '2019-09-26 18:19:42', 'context': '到达【邮政徐州市邮件处理分局】 徐州市', 'location': ''}, {'time': '2019-09-26 18:02:10', 'ftime': '2019-09-26 18:02:10', 'context': '徐州市 离开【江苏省新沂市寄递事业部大宗邮件收寄中心】,下一站【徐州枢纽】', 'location': ''}, {'time': '2019-09-26 11:11:56', 'ftime': '2019-09-26 11:11:56', 'context': '徐州市 【江苏省新沂市寄递事业部大宗邮件收寄中心】已收件,揽投员:姜磊,电话:13952288818', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:18:01', 'ftime': '2019-09-29 06:18:01', 'context': '【山东省东营市】 已发出 下一站 【山东省东营市仙孤分部】', 'location': ''}, {'time': '2019-09-29 06:00:03', 'ftime': '2019-09-29 06:00:03', 'context': '【山东省东营市公司】 已收入', 'location': ''}, {'time': '2019-09-28 20:38:52', 'ftime': '2019-09-28 20:38:52', 'context': '【济南转运中心】 已发出 下一站 【山东省东营市】', 'location': ''}, {'time': '2019-09-28 20:37:15', 'ftime': '2019-09-28 20:37:15', 'context': '【济南转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 19:35:22', 'ftime': '2019-09-26 19:35:22', 'context': '【哈尔滨转运中心】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-09-26 19:33:10', 'ftime': '2019-09-26 19:33:10', 'context': '【哈尔滨转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 16:51:32', 'ftime': '2019-09-26 16:51:32', 'context': '【黑龙江省哈尔滨市顾乡公司】 已收件 取件人: 杨璐 (18003661520)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.071452</v>
+        <v>0.068741</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.011148</v>
+        <v>0.009662</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-15 11:55:53', 'ftime': '2019-09-15 11:55:53', 'context': '已签收,签收人是（071****9758）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员杨世明(15342309525,0710-6799758)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-15 08:39:54', 'ftime': '2019-09-15 08:39:54', 'context': '湖北枣阳公司-杨世明(15342309525,0710-6799758)-派件中', 'location': ''}, {'time': '2019-09-15 08:06:07', 'ftime': '2019-09-15 08:06:07', 'context': '已到达-湖北枣阳公司', 'location': ''}, {'time': '2019-09-15 07:54:54', 'ftime': '2019-09-15 07:54:54', 'context': '已到达-湖北枣阳公司', 'location': ''}, {'time': '2019-09-14 12:13:45', 'ftime': '2019-09-14 12:13:45', 'context': '湖北襄阳转运中心-已发往-湖北枣阳公司', 'location': ''}, {'time': '2019-09-14 12:13:45', 'ftime': '2019-09-14 12:13:45', 'context': '湖北襄阳转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-14 11:57:11', 'ftime': '2019-09-14 11:57:11', 'context': '已到达-湖北襄阳转运中心', 'location': ''}, {'time': '2019-09-14 05:38:58', 'ftime': '2019-09-14 05:38:58', 'context': '湖北武汉转运中心-已装袋发往-湖北襄阳转运中心', 'location': ''}, {'time': '2019-09-14 05:38:58', 'ftime': '2019-09-14 05:38:58', 'context': '湖北武汉转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-14 05:37:18', 'ftime': '2019-09-14 05:37:18', 'context': '已到达-湖北武汉转运中心', 'location': ''}, {'time': '2019-09-14 05:37:18', 'ftime': '2019-09-14 05:37:18', 'context': '快件已在【湖北武汉转运中心】进行卸车，扫描员【二号库卸货4】', 'location': ''}, {'time': '2019-09-12 19:45:59', 'ftime': '2019-09-12 19:45:59', 'context': '广东佛山转运中心-已装袋发往-湖北武汉转运中心', 'location': ''}, {'time': '2019-09-12 19:45:59', 'ftime': '2019-09-12 19:45:59', 'context': '广东佛山转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-12 19:37:16', 'ftime': '2019-09-12 19:37:16', 'context': '广东佛山转运中心-已发往-湖北武汉转运中心', 'location': ''}, {'time': '2019-09-12 19:37:16', 'ftime': '2019-09-12 19:37:16', 'context': '广东佛山转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-12 19:23:15', 'ftime': '2019-09-12 19:23:15', 'context': '已到达-广东佛山转运中心', 'location': ''}, {'time': '2019-09-12 04:44:33', 'ftime': '2019-09-12 04:44:33', 'context': '广东佛山公司--已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:09:56', 'ftime': '2019-09-29 09:09:56', 'context': '【衡阳市】 【耒阳】 的神农广场分部（18229296761） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 06:42:09', 'ftime': '2019-09-29 06:42:09', 'context': '【衡阳市】 快件已经到达 【耒阳】', 'location': ''}, {'time': '2019-09-28 13:54:25', 'ftime': '2019-09-28 13:54:25', 'context': '【衡阳市】 快件离开 【衡阳中转】 已发往 【耒阳】', 'location': ''}, {'time': '2019-09-28 13:00:36', 'ftime': '2019-09-28 13:00:36', 'context': '【衡阳市】 快件已经到达 【衡阳中转】', 'location': ''}, {'time': '2019-09-28 02:18:10', 'ftime': '2019-09-28 02:18:10', 'context': '【武汉市】 快件离开 【武汉中转部】 已发往 【衡阳中转】', 'location': ''}, {'time': '2019-09-28 02:16:52', 'ftime': '2019-09-28 02:16:52', 'context': '【武汉市】 快件已经到达 【武汉中转部】', 'location': ''}, {'time': '2019-09-27 09:53:02', 'ftime': '2019-09-27 09:53:02', 'context': '【鄂州市】 快件离开 【鄂州葛店开发区】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-09-27 09:53:00', 'ftime': '2019-09-27 09:53:00', 'context': '【鄂州市】 【鄂州葛店开发区】（0711-3801112、0711-3806958） 的 懿诚（18071174095） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.068442</v>
+        <v>0.079942</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009919000000000001</v>
+        <v>0.060716</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:00:18', 'ftime': '2019-09-29 09:00:18', 'context': '【山东省烟台市招远市公司】 派件中 派件人: 郭峰 电话 13188792064 如有疑问，请联系：0535-8216616', 'location': ''}, {'time': '2019-09-29 08:53:06', 'ftime': '2019-09-29 08:53:06', 'context': '【山东省烟台市招远市公司】 已收入', 'location': ''}, {'time': '2019-09-28 09:30:22', 'ftime': '2019-09-28 09:30:22', 'context': '【潍坊转运中心】 已发出 下一站 【山东省烟台市招远市】', 'location': ''}, {'time': '2019-09-28 09:07:36', 'ftime': '2019-09-28 09:07:36', 'context': '【潍坊转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 02:16:07', 'ftime': '2019-09-28 02:16:07', 'context': '【济南转运中心】 已发出 下一站 【潍坊转运中心】', 'location': ''}, {'time': '2019-09-28 02:14:55', 'ftime': '2019-09-28 02:14:55', 'context': '【济南转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 19:46:16', 'ftime': '2019-09-27 19:46:16', 'context': '【山东省泰安市】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-09-27 19:32:07', 'ftime': '2019-09-27 19:32:07', 'context': '【山东省泰安市公司】 已打包', 'location': ''}, {'time': '2019-09-27 14:26:49', 'ftime': '2019-09-27 14:26:49', 'context': '【山东省泰安市公司】 已收件 取件人: 龚舒翔 (18853810678)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-06 10:22:16', 'context': '查无结果', 'ftime': '2019-09-06 10:22:16'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.068707</v>
+        <v>0.069434</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010641</v>
+        <v>0.009029000000000001</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 11:35:51', 'ftime': '2019-09-28 11:35:51', 'context': '【郑州转运中心】 已发出 下一站 【呼和浩特转运中心】', 'location': ''}, {'time': '2019-09-28 11:30:05', 'ftime': '2019-09-28 11:30:05', 'context': '【郑州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 22:37:52', 'ftime': '2019-09-27 22:37:52', 'context': '【武昌转运中心】 已发出 下一站 【郑州转运中心】', 'location': ''}, {'time': '2019-09-27 22:33:16', 'ftime': '2019-09-27 22:33:16', 'context': '【武昌转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 16:15:02', 'ftime': '2019-09-27 16:15:02', 'context': '【湖北省咸宁市崇阳县】 已发出 下一站 【武昌转运中心】', 'location': ''}, {'time': '2019-09-27 16:13:49', 'ftime': '2019-09-27 16:13:49', 'context': '【湖北省咸宁市崇阳县公司】 已收件 取件人: 刘学 (18372722570)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 10:27:45', 'ftime': '2019-09-28 10:27:45', 'context': '【杭州市】 快件已由【菜鸟的雍景湾6幢架空层东侧【自提柜】】代签收, 如有问题请电联（13456766615 / 057126883287）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-09-28 09:34:43', 'ftime': '2019-09-28 09:34:43', 'context': '【杭州市】 快件已到达 【萧山市区十八部】（15355426031）,业务员 牛牛（13456766615） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-28 00:42:55', 'ftime': '2019-09-28 00:42:55', 'context': '【杭州市】 快件离开 【萧山市区】 已发往 【萧山市区十八部】', 'location': ''}, {'time': '2019-09-28 00:40:50', 'ftime': '2019-09-28 00:40:50', 'context': '【杭州市】 快件已经到达 【萧山市区】', 'location': ''}, {'time': '2019-09-27 14:37:10', 'ftime': '2019-09-27 14:37:10', 'context': '【嘉兴市】 快件离开 【杭州中转部】 已发往 【萧山市区】', 'location': ''}, {'time': '2019-09-27 14:29:19', 'ftime': '2019-09-27 14:29:19', 'context': '【嘉兴市】 快件已经到达 【杭州中转部】', 'location': ''}, {'time': '2019-09-26 21:46:53', 'ftime': '2019-09-26 21:46:53', 'context': '【郑州市】 快件离开 【郑州中转】 已发往 【杭州中转部】', 'location': ''}, {'time': '2019-09-26 21:44:55', 'ftime': '2019-09-26 21:44:55', 'context': '【郑州市】 快件已经到达 【郑州中转】', 'location': ''}, {'time': '2019-09-26 18:42:35', 'ftime': '2019-09-26 18:42:35', 'context': '【焦作市】 快件离开 【焦作温县】 已发往 【郑州】', 'location': ''}, {'time': '2019-09-26 17:59:41', 'ftime': '2019-09-26 17:59:41', 'context': '【焦作市】 【焦作温县】（0391-3820831） 的 番田（15538970222） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.072988</v>
+        <v>0.07395400000000001</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.009128000000000001</v>
+        <v>0.011041</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:25:02', 'ftime': '2019-09-29 08:25:02', 'context': '[广西北海公司]到达目的地网点，快件很快进行派送', 'location': '广西北海公司'}, {'time': '2019-09-28 15:41:20', 'ftime': '2019-09-28 15:41:20', 'context': '[广西北海公司]进行揽件扫描', 'location': '广西北海公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 02:36:56', 'ftime': '2019-09-29 02:36:56', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-29 02:36:55', 'ftime': '2019-09-29 02:36:55', 'context': '货物已到达【太原小店营业部】', 'location': ''}, {'time': '2019-09-28 12:27:51', 'ftime': '2019-09-28 12:27:51', 'context': '货物已完成分拣，离开【济南分拣中心】', 'location': ''}, {'time': '2019-09-28 12:21:38', 'ftime': '2019-09-28 12:21:38', 'context': '货物已到达【济南分拣中心】', 'location': ''}, {'time': '2019-09-28 12:21:34', 'ftime': '2019-09-28 12:21:34', 'context': '货物已到达【济南分拣中心】', 'location': ''}, {'time': '2019-09-27 22:28:52', 'ftime': '2019-09-27 22:28:52', 'context': '货物已完成分拣，离开【南京分拨中心】', 'location': ''}, {'time': '2019-09-27 18:28:35', 'ftime': '2019-09-27 18:28:35', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 18:28:35', 'ftime': '2019-09-27 18:28:35', 'context': '配送员杨斌已经揽收完成', 'location': ''}, {'time': '2019-09-27 16:42:46', 'ftime': '2019-09-27 16:42:46', 'context': '揽收任务已分配给唐明明,配送员电话15051901739', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.072977</v>
+        <v>0.069511</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.008840000000000001</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:03:51', 'ftime': '2019-09-29 09:03:51', 'context': '【烟台市】 快件离开 【龙口】 已发往 【龙口海岱镇】', 'location': ''}, {'time': '2019-09-29 07:09:52', 'ftime': '2019-09-29 07:09:52', 'context': '【烟台市】 快件已经到达 【龙口】', 'location': ''}, {'time': '2019-09-29 02:27:02', 'ftime': '2019-09-29 02:27:02', 'context': '【青岛市】 快件离开 【莱阳中转】 已发往 【龙口】', 'location': ''}, {'time': '2019-09-29 01:16:29', 'ftime': '2019-09-29 01:16:29', 'context': '【青岛市】 快件已经到达 【莱阳中转】', 'location': ''}, {'time': '2019-09-28 16:42:26', 'ftime': '2019-09-28 16:42:26', 'context': '【潍坊市】 快件离开 【潍坊中转部】 已发往 【莱阳中转】', 'location': ''}, {'time': '2019-09-28 16:35:40', 'ftime': '2019-09-28 16:35:40', 'context': '【潍坊市】 快件已经到达 【潍坊中转部】', 'location': ''}, {'time': '2019-09-27 03:26:00', 'ftime': '2019-09-27 03:26:00', 'context': '【南宁市】 快件离开 【南宁中转】 已发往 【潍坊中转部】', 'location': ''}, {'time': '2019-09-27 03:22:39', 'ftime': '2019-09-27 03:22:39', 'context': '【南宁市】 快件已经到达 【南宁中转】', 'location': ''}, {'time': '2019-09-26 19:31:01', 'ftime': '2019-09-26 19:31:01', 'context': '【南宁市】 快件离开 【南宁奥园分部】 已发往 【南宁中转】', 'location': ''}, {'time': '2019-09-26 19:30:56', 'ftime': '2019-09-26 19:30:56', 'context': '【南宁市】 【南宁奥园分部】（0771-4872920） 的 赵富群（13877302747） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:46:00', 'ftime': '2019-09-29 08:46:00', 'context': '已到达-上海金山南部公司', 'location': ''}, {'time': '2019-09-29 03:45:40', 'ftime': '2019-09-29 03:45:40', 'context': '上海金山市内分拨-已发往-上海金山南部公司', 'location': ''}, {'time': '2019-09-29 03:45:10', 'ftime': '2019-09-29 03:45:10', 'context': '已到达-上海金山南部公司', 'location': ''}, {'time': '2019-09-29 03:44:28', 'ftime': '2019-09-29 03:44:28', 'context': '上海中转部-已发往-上海金山市内分拨', 'location': ''}, {'time': '2019-09-29 03:44:28', 'ftime': '2019-09-29 03:44:28', 'context': '上海中转部-已进行装车扫描', 'location': ''}, {'time': '2019-09-29 03:31:03', 'ftime': '2019-09-29 03:31:03', 'context': '已到达-上海金山市内分拨', 'location': ''}, {'time': '2019-09-29 03:30:27', 'ftime': '2019-09-29 03:30:27', 'context': '已到达-上海中转部', 'location': ''}, {'time': '2019-09-29 03:29:56', 'ftime': '2019-09-29 03:29:56', 'context': '已到达-上海中转部', 'location': ''}, {'time': '2019-09-28 20:34:30', 'ftime': '2019-09-28 20:34:30', 'context': '江苏扬中公司-已发往-江苏无锡中转部', 'location': ''}, {'time': '2019-09-28 19:09:16', 'ftime': '2019-09-28 19:09:16', 'context': '江苏扬中公司-黄书萍(13912114755)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.068217</v>
+        <v>0.07527399999999999</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.008869</v>
+        <v>0.045462</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 18:43:04', 'ftime': '2019-09-27 18:43:04', 'context': '已签收,他人代收,投递员:叶风,电话:18367175475', 'location': None}, {'time': '2019-09-27 16:26:42', 'ftime': '2019-09-27 16:26:42', 'context': '【临安市处理中心】安排投递,投递员:叶风,电话:18367175475', 'location': None}, {'time': '2019-09-27 13:05:22', 'ftime': '2019-09-27 13:05:22', 'context': '到达【临安市处理中心】（经转）', 'location': None}, {'time': '2019-09-27 11:33:41', 'ftime': '2019-09-27 11:33:41', 'context': '离开【杭州中心】，下一站【临安市处理中心】（经转）', 'location': None}, {'time': '2019-09-27 08:12:12', 'ftime': '2019-09-27 08:12:12', 'context': '到达【杭州中心】（经转）', 'location': None}, {'time': '2019-09-26 20:19:11', 'ftime': '2019-09-26 20:19:11', 'context': '到达【南宁中心】（经转）', 'location': None}, {'time': '2019-09-26 17:09:52', 'ftime': '2019-09-26 17:09:52', 'context': '离开【南宁市新华街揽投部】，下一站【南宁中心】', 'location': None}, {'time': '2019-09-26 03:54:11', 'ftime': '2019-09-26 03:54:11', 'context': '离开【南宁中心】，下一站【杭州中心】（经转）', 'location': None}, {'time': '2019-09-25 18:47:18', 'ftime': '2019-09-25 18:47:18', 'context': '【南宁市新华街揽投部】已收件,揽投员:韦坚', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 10:22:16', 'context': '查无结果', 'ftime': '2019-09-15 10:22:16'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.074855</v>
+        <v>0.064447</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.011039</v>
+        <v>0.010189</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 10:07:13', 'context': '查无结果', 'ftime': '2019-09-19 10:07:13'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:29:32', 'ftime': '2019-09-28 22:29:32', 'context': '快件由【天津转运】发往【华东绍兴枢纽】', 'location': ''}, {'time': '2019-09-28 18:50:23', 'ftime': '2019-09-28 18:50:23', 'context': '快件到达【天津转运】', 'location': ''}, {'time': '2019-09-28 14:27:09', 'ftime': '2019-09-28 14:27:09', 'context': '【天津第二市场部13323301510】的客户董已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.068651</v>
+        <v>0.073199</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009443999999999999</v>
+        <v>0.010246</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (6).xlsx
+++ b/data_excel/接口测试用例_ (6).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:53:00', 'ftime': '2019-09-29 09:53:00', 'context': '[西安市/咸阳市]快件到达【西安】，准备发往【西安总集散中心】', 'location': '西安市/咸阳市'}, {'time': '2019-09-29 08:11:00', 'ftime': '2019-09-29 08:11:00', 'context': '[常州市]快件在【常州飞往西安航班上】已起飞', 'location': '常州市'}, {'time': '2019-09-29 04:56:16', 'ftime': '2019-09-29 04:56:16', 'context': '[常州市]快件在【常州总集散中心】已装车,准备发往 【西安总集散中心】', 'location': '常州市'}, {'time': '2019-09-29 01:14:45', 'ftime': '2019-09-29 01:14:45', 'context': '[常州市]快件到达 【常州总集散中心】', 'location': '常州市'}, {'time': '2019-09-28 20:41:21', 'ftime': '2019-09-28 20:41:21', 'context': '[苏州市]快件已发车', 'location': '苏州市'}, {'time': '2019-09-28 19:18:52', 'ftime': '2019-09-28 19:18:52', 'context': '[苏州市]快件在【苏州阳澄湖大闸蟹临时集散点】已装车,准备发往 【上海虹桥集散中心】', 'location': '苏州市'}, {'time': '2019-09-28 16:46:44', 'ftime': '2019-09-28 16:46:44', 'context': '[苏州市]快件到达 【苏州阳澄湖大闸蟹临时集散点】', 'location': '苏州市'}, {'time': '2019-09-28 16:13:23', 'ftime': '2019-09-28 16:13:23', 'context': '[苏州市]快件已发车', 'location': '苏州市'}, {'time': '2019-09-28 16:07:36', 'ftime': '2019-09-28 16:07:36', 'context': '快件在【苏州市工业园浅水湾大闸蟹营业点】已装车,准备发往下一站', 'location': '苏州市'}, {'time': '2019-09-28 15:07:14', 'ftime': '2019-09-28 15:07:14', 'context': '[苏州市]顺丰速运 已收取快件', 'location': '苏州市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 10:19:11', 'ftime': '2019-09-28 10:19:11', 'context': '运输中，离开【淮安转运场】，下一站【长春转运场】', 'location': '淮安市'}, {'time': '2019-09-27 06:28:48', 'ftime': '2019-09-27 06:28:48', 'context': '货物已到达淮安转运场', 'location': '淮安市'}, {'time': '2019-09-27 01:20:07', 'ftime': '2019-09-27 01:20:07', 'context': '运输中，离开【合肥转运中心】，下一站【淮安转运场】', 'location': '合肥市'}, {'time': '2019-09-26 20:08:38', 'ftime': '2019-09-26 20:08:38', 'context': '货物已到达合肥转运中心', 'location': '合肥市'}, {'time': '2019-09-26 18:44:48', 'ftime': '2019-09-26 18:44:48', 'context': '运输中，离开【合肥庐江县营业部】，下一站【合肥转运中心】', 'location': '合肥市'}, {'time': '2019-09-26 18:01:39', 'ftime': '2019-09-26 18:01:39', 'context': '您的订单已被收件员揽收，【合肥庐江县营业部,电话：13856512082】库存中', 'location': '合肥市'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.07174800000000001</v>
+        <v>0.068485</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.010723</v>
+        <v>0.009971000000000001</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:18:01', 'ftime': '2019-09-29 06:18:01', 'context': '【山东省东营市】 已发出 下一站 【山东省东营市仙孤分部】', 'location': ''}, {'time': '2019-09-29 06:00:03', 'ftime': '2019-09-29 06:00:03', 'context': '【山东省东营市公司】 已收入', 'location': ''}, {'time': '2019-09-28 20:38:52', 'ftime': '2019-09-28 20:38:52', 'context': '【济南转运中心】 已发出 下一站 【山东省东营市】', 'location': ''}, {'time': '2019-09-28 20:37:15', 'ftime': '2019-09-28 20:37:15', 'context': '【济南转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 19:35:22', 'ftime': '2019-09-26 19:35:22', 'context': '【哈尔滨转运中心】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-09-26 19:33:10', 'ftime': '2019-09-26 19:33:10', 'context': '【哈尔滨转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 16:51:32', 'ftime': '2019-09-26 16:51:32', 'context': '【黑龙江省哈尔滨市顾乡公司】 已收件 取件人: 杨璐 (18003661520)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:28:26', 'context': '查无结果', 'ftime': '2019-09-24 10:28:26'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.068741</v>
+        <v>0.066645</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009662</v>
+        <v>0.009797999999999999</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:09:56', 'ftime': '2019-09-29 09:09:56', 'context': '【衡阳市】 【耒阳】 的神农广场分部（18229296761） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 06:42:09', 'ftime': '2019-09-29 06:42:09', 'context': '【衡阳市】 快件已经到达 【耒阳】', 'location': ''}, {'time': '2019-09-28 13:54:25', 'ftime': '2019-09-28 13:54:25', 'context': '【衡阳市】 快件离开 【衡阳中转】 已发往 【耒阳】', 'location': ''}, {'time': '2019-09-28 13:00:36', 'ftime': '2019-09-28 13:00:36', 'context': '【衡阳市】 快件已经到达 【衡阳中转】', 'location': ''}, {'time': '2019-09-28 02:18:10', 'ftime': '2019-09-28 02:18:10', 'context': '【武汉市】 快件离开 【武汉中转部】 已发往 【衡阳中转】', 'location': ''}, {'time': '2019-09-28 02:16:52', 'ftime': '2019-09-28 02:16:52', 'context': '【武汉市】 快件已经到达 【武汉中转部】', 'location': ''}, {'time': '2019-09-27 09:53:02', 'ftime': '2019-09-27 09:53:02', 'context': '【鄂州市】 快件离开 【鄂州葛店开发区】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-09-27 09:53:00', 'ftime': '2019-09-27 09:53:00', 'context': '【鄂州市】 【鄂州葛店开发区】（0711-3801112、0711-3806958） 的 懿诚（18071174095） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:40:11', 'ftime': '2019-09-29 09:40:11', 'context': '运输中，离开【淮安转运场】，下一站【淮安涟水县红太阳物流园营业部】', 'location': '淮安市'}, {'time': '2019-09-29 04:16:21', 'ftime': '2019-09-29 04:16:21', 'context': '货物已到达淮安转运场', 'location': '淮安市'}, {'time': '2019-09-28 04:52:24', 'ftime': '2019-09-28 04:52:24', 'context': '运输中，离开【顺德枢纽中心】，下一站【淮安转运场】', 'location': '佛山市'}, {'time': '2019-09-27 22:28:38', 'ftime': '2019-09-27 22:28:38', 'context': '货物已到达顺德枢纽中心', 'location': '佛山市'}, {'time': '2019-09-27 21:40:41', 'ftime': '2019-09-27 21:40:41', 'context': '运输中，离开【广州海珠区新滘中路营业部】，下一站【顺德枢纽中心】', 'location': '广州市'}, {'time': '2019-09-27 18:59:12', 'ftime': '2019-09-27 18:59:12', 'context': '您的订单已被收件员揽收,【广州海珠区新滘中路营业部】库存中', 'location': '广州市'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.079942</v>
+        <v>0.074998</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.060716</v>
+        <v>0.009409000000000001</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-06 10:22:16', 'context': '查无结果', 'ftime': '2019-09-06 10:22:16'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:35:26', 'ftime': '2019-09-29 08:35:26', 'context': '【河北省沧州市黄骅市公司】 已收入', 'location': ''}, {'time': '2019-09-28 15:44:18', 'ftime': '2019-09-28 15:44:18', 'context': '【肃宁转运中心】 已发出 下一站 【河北省沧州市黄骅市】', 'location': ''}, {'time': '2019-09-28 15:09:38', 'ftime': '2019-09-28 15:09:38', 'context': '【肃宁转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 01:01:40', 'ftime': '2019-09-27 01:01:40', 'context': '【杭州转运中心】 已发出 下一站 【肃宁转运中心】', 'location': ''}, {'time': '2019-09-27 00:57:36', 'ftime': '2019-09-27 00:57:36', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 21:11:50', 'ftime': '2019-09-26 21:11:50', 'context': '【浙江省绍兴市诸暨市】 已发出 下一站 【杭州转运中心】', 'location': ''}, {'time': '2019-09-26 20:00:29', 'ftime': '2019-09-26 20:00:29', 'context': '【浙江省绍兴市诸暨市公司】 已打包', 'location': ''}, {'time': '2019-09-26 19:50:20', 'ftime': '2019-09-26 19:50:20', 'context': '【浙江省绍兴市诸暨市公司】 已收件 取件人: 郑志芬 (18858586101)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.069434</v>
+        <v>0.07414999999999999</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.009029000000000001</v>
+        <v>0.009705</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 10:27:45', 'ftime': '2019-09-28 10:27:45', 'context': '【杭州市】 快件已由【菜鸟的雍景湾6幢架空层东侧【自提柜】】代签收, 如有问题请电联（13456766615 / 057126883287）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-09-28 09:34:43', 'ftime': '2019-09-28 09:34:43', 'context': '【杭州市】 快件已到达 【萧山市区十八部】（15355426031）,业务员 牛牛（13456766615） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-28 00:42:55', 'ftime': '2019-09-28 00:42:55', 'context': '【杭州市】 快件离开 【萧山市区】 已发往 【萧山市区十八部】', 'location': ''}, {'time': '2019-09-28 00:40:50', 'ftime': '2019-09-28 00:40:50', 'context': '【杭州市】 快件已经到达 【萧山市区】', 'location': ''}, {'time': '2019-09-27 14:37:10', 'ftime': '2019-09-27 14:37:10', 'context': '【嘉兴市】 快件离开 【杭州中转部】 已发往 【萧山市区】', 'location': ''}, {'time': '2019-09-27 14:29:19', 'ftime': '2019-09-27 14:29:19', 'context': '【嘉兴市】 快件已经到达 【杭州中转部】', 'location': ''}, {'time': '2019-09-26 21:46:53', 'ftime': '2019-09-26 21:46:53', 'context': '【郑州市】 快件离开 【郑州中转】 已发往 【杭州中转部】', 'location': ''}, {'time': '2019-09-26 21:44:55', 'ftime': '2019-09-26 21:44:55', 'context': '【郑州市】 快件已经到达 【郑州中转】', 'location': ''}, {'time': '2019-09-26 18:42:35', 'ftime': '2019-09-26 18:42:35', 'context': '【焦作市】 快件离开 【焦作温县】 已发往 【郑州】', 'location': ''}, {'time': '2019-09-26 17:59:41', 'ftime': '2019-09-26 17:59:41', 'context': '【焦作市】 【焦作温县】（0391-3820831） 的 番田（15538970222） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-11 10:28:27', 'context': '查无结果', 'ftime': '2019-09-11 10:28:27'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.07395400000000001</v>
+        <v>0.068216</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.011041</v>
+        <v>0.010026</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 02:36:56', 'ftime': '2019-09-29 02:36:56', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-29 02:36:55', 'ftime': '2019-09-29 02:36:55', 'context': '货物已到达【太原小店营业部】', 'location': ''}, {'time': '2019-09-28 12:27:51', 'ftime': '2019-09-28 12:27:51', 'context': '货物已完成分拣，离开【济南分拣中心】', 'location': ''}, {'time': '2019-09-28 12:21:38', 'ftime': '2019-09-28 12:21:38', 'context': '货物已到达【济南分拣中心】', 'location': ''}, {'time': '2019-09-28 12:21:34', 'ftime': '2019-09-28 12:21:34', 'context': '货物已到达【济南分拣中心】', 'location': ''}, {'time': '2019-09-27 22:28:52', 'ftime': '2019-09-27 22:28:52', 'context': '货物已完成分拣，离开【南京分拨中心】', 'location': ''}, {'time': '2019-09-27 18:28:35', 'ftime': '2019-09-27 18:28:35', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 18:28:35', 'ftime': '2019-09-27 18:28:35', 'context': '配送员杨斌已经揽收完成', 'location': ''}, {'time': '2019-09-27 16:42:46', 'ftime': '2019-09-27 16:42:46', 'context': '揽收任务已分配给唐明明,配送员电话15051901739', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 19:04:24', 'ftime': '2019-09-28 19:04:24', 'context': '[沈阳市]到沈阳市【沈阳大东十七部集货点】', 'location': None}, {'time': '2019-09-28 18:48:02', 'ftime': '2019-09-28 18:48:02', 'context': '[沈阳市]沈阳市【沈阳大东十八部】，【徐文强/13889362401】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.069511</v>
+        <v>0.069151</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009379999999999999</v>
+        <v>0.010745</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:46:00', 'ftime': '2019-09-29 08:46:00', 'context': '已到达-上海金山南部公司', 'location': ''}, {'time': '2019-09-29 03:45:40', 'ftime': '2019-09-29 03:45:40', 'context': '上海金山市内分拨-已发往-上海金山南部公司', 'location': ''}, {'time': '2019-09-29 03:45:10', 'ftime': '2019-09-29 03:45:10', 'context': '已到达-上海金山南部公司', 'location': ''}, {'time': '2019-09-29 03:44:28', 'ftime': '2019-09-29 03:44:28', 'context': '上海中转部-已发往-上海金山市内分拨', 'location': ''}, {'time': '2019-09-29 03:44:28', 'ftime': '2019-09-29 03:44:28', 'context': '上海中转部-已进行装车扫描', 'location': ''}, {'time': '2019-09-29 03:31:03', 'ftime': '2019-09-29 03:31:03', 'context': '已到达-上海金山市内分拨', 'location': ''}, {'time': '2019-09-29 03:30:27', 'ftime': '2019-09-29 03:30:27', 'context': '已到达-上海中转部', 'location': ''}, {'time': '2019-09-29 03:29:56', 'ftime': '2019-09-29 03:29:56', 'context': '已到达-上海中转部', 'location': ''}, {'time': '2019-09-28 20:34:30', 'ftime': '2019-09-28 20:34:30', 'context': '江苏扬中公司-已发往-江苏无锡中转部', 'location': ''}, {'time': '2019-09-28 19:09:16', 'ftime': '2019-09-28 19:09:16', 'context': '江苏扬中公司-黄书萍(13912114755)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:28:27', 'context': '查无结果', 'ftime': '2019-09-10 10:28:27'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.07527399999999999</v>
+        <v>0.071481</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.045462</v>
+        <v>0.009963</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 10:22:16', 'context': '查无结果', 'ftime': '2019-09-15 10:22:16'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:46:15', 'ftime': '2019-09-29 08:46:15', 'context': '【大连市】 快件已到达 【大连瓦房店】（15541169255、18642698410）,业务员 王为滨15842445070（15842445070） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 01:56:29', 'ftime': '2019-09-29 01:56:29', 'context': '【大连市】 快件离开 【大连】 已发往 【大连瓦房店】', 'location': ''}, {'time': '2019-09-28 13:59:58', 'ftime': '2019-09-28 13:59:58', 'context': '【大连市】 快件已经到达 【大连】', 'location': ''}, {'time': '2019-09-26 06:00:55', 'ftime': '2019-09-26 06:00:55', 'context': '【广州市】 快件离开 【广州中心】 已发往 【大连】', 'location': ''}, {'time': '2019-09-26 05:58:52', 'ftime': '2019-09-26 05:58:52', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-09-26 02:46:01', 'ftime': '2019-09-26 02:46:01', 'context': '【广州市】 快件离开 【广州滨江】 已发往 【大连】', 'location': ''}, {'time': '2019-09-25 23:13:47', 'ftime': '2019-09-25 23:13:47', 'context': '【广州市】 【广州滨江】（020-22505282） 的 事业部-黄庆辉s（15917434587） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.064447</v>
+        <v>0.074465</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.010189</v>
+        <v>0.009242</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:29:32', 'ftime': '2019-09-28 22:29:32', 'context': '快件由【天津转运】发往【华东绍兴枢纽】', 'location': ''}, {'time': '2019-09-28 18:50:23', 'ftime': '2019-09-28 18:50:23', 'context': '快件到达【天津转运】', 'location': ''}, {'time': '2019-09-28 14:27:09', 'ftime': '2019-09-28 14:27:09', 'context': '【天津第二市场部13323301510】的客户董已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 10:28:27', 'context': '查无结果', 'ftime': '2019-09-19 10:28:27'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.073199</v>
+        <v>0.063869</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010246</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (6).xlsx
+++ b/data_excel/接口测试用例_ (6).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 10:19:11', 'ftime': '2019-09-28 10:19:11', 'context': '运输中，离开【淮安转运场】，下一站【长春转运场】', 'location': '淮安市'}, {'time': '2019-09-27 06:28:48', 'ftime': '2019-09-27 06:28:48', 'context': '货物已到达淮安转运场', 'location': '淮安市'}, {'time': '2019-09-27 01:20:07', 'ftime': '2019-09-27 01:20:07', 'context': '运输中，离开【合肥转运中心】，下一站【淮安转运场】', 'location': '合肥市'}, {'time': '2019-09-26 20:08:38', 'ftime': '2019-09-26 20:08:38', 'context': '货物已到达合肥转运中心', 'location': '合肥市'}, {'time': '2019-09-26 18:44:48', 'ftime': '2019-09-26 18:44:48', 'context': '运输中，离开【合肥庐江县营业部】，下一站【合肥转运中心】', 'location': '合肥市'}, {'time': '2019-09-26 18:01:39', 'ftime': '2019-09-26 18:01:39', 'context': '您的订单已被收件员揽收，【合肥庐江县营业部,电话：13856512082】库存中', 'location': '合肥市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 12:08:23', 'ftime': '2019-09-29 12:08:23', 'context': '【莞城】的【莞城】已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.068485</v>
+        <v>0.076727</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009971000000000001</v>
+        <v>0.009776</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:28:26', 'context': '查无结果', 'ftime': '2019-09-24 10:28:26'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 16:10:55', 'context': '查无结果', 'ftime': '2019-09-08 16:10:55'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.066645</v>
+        <v>0.075043</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009797999999999999</v>
+        <v>0.010303</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:40:11', 'ftime': '2019-09-29 09:40:11', 'context': '运输中，离开【淮安转运场】，下一站【淮安涟水县红太阳物流园营业部】', 'location': '淮安市'}, {'time': '2019-09-29 04:16:21', 'ftime': '2019-09-29 04:16:21', 'context': '货物已到达淮安转运场', 'location': '淮安市'}, {'time': '2019-09-28 04:52:24', 'ftime': '2019-09-28 04:52:24', 'context': '运输中，离开【顺德枢纽中心】，下一站【淮安转运场】', 'location': '佛山市'}, {'time': '2019-09-27 22:28:38', 'ftime': '2019-09-27 22:28:38', 'context': '货物已到达顺德枢纽中心', 'location': '佛山市'}, {'time': '2019-09-27 21:40:41', 'ftime': '2019-09-27 21:40:41', 'context': '运输中，离开【广州海珠区新滘中路营业部】，下一站【顺德枢纽中心】', 'location': '广州市'}, {'time': '2019-09-27 18:59:12', 'ftime': '2019-09-27 18:59:12', 'context': '您的订单已被收件员揽收,【广州海珠区新滘中路营业部】库存中', 'location': '广州市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 19:29:35', 'ftime': '2019-09-28 19:29:35', 'context': '【烟台转运中心】 已发出 下一站 【上海转运中心】', 'location': ''}, {'time': '2019-09-28 19:27:37', 'ftime': '2019-09-28 19:27:37', 'context': '【烟台转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 16:08:03', 'ftime': '2019-09-28 16:08:03', 'context': '【山东省威海市】 已发出 下一站 【烟台转运中心】', 'location': ''}, {'time': '2019-09-28 09:32:14', 'ftime': '2019-09-28 09:32:14', 'context': '【山东省威海市公司】 已打包', 'location': ''}, {'time': '2019-09-28 08:11:21', 'ftime': '2019-09-28 08:11:21', 'context': '【山东省威海市公司】 已收件 取件人: 于华丽 (18663181258)', 'location': ''}, {'time': '2019-09-27 09:55:11', 'ftime': '2019-09-27 09:55:11', 'context': '威海,快件正在清关', 'location': ''}, {'time': '2019-09-27 08:09:34', 'ftime': '2019-09-27 08:09:34', 'context': '威海,班轮到港', 'location': ''}, {'time': '2019-09-26 17:40:56', 'ftime': '2019-09-26 17:40:56', 'context': '韩国仁川,班轮离港', 'location': ''}, {'time': '2019-09-26 15:33:41', 'ftime': '2019-09-26 15:33:41', 'context': '韩国仁川国际转运仓,上车扫描', 'location': ''}, {'time': '2019-09-26 11:24:29', 'ftime': '2019-09-26 11:24:29', 'context': '韩国仁川国际转运仓,已收入', 'location': ''}, {'time': '2019-09-26 08:39:30', 'ftime': '2019-09-26 08:39:30', 'context': '韩国首尔,已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.074998</v>
+        <v>0.075277</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009409000000000001</v>
+        <v>0.009797</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:35:26', 'ftime': '2019-09-29 08:35:26', 'context': '【河北省沧州市黄骅市公司】 已收入', 'location': ''}, {'time': '2019-09-28 15:44:18', 'ftime': '2019-09-28 15:44:18', 'context': '【肃宁转运中心】 已发出 下一站 【河北省沧州市黄骅市】', 'location': ''}, {'time': '2019-09-28 15:09:38', 'ftime': '2019-09-28 15:09:38', 'context': '【肃宁转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 01:01:40', 'ftime': '2019-09-27 01:01:40', 'context': '【杭州转运中心】 已发出 下一站 【肃宁转运中心】', 'location': ''}, {'time': '2019-09-27 00:57:36', 'ftime': '2019-09-27 00:57:36', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 21:11:50', 'ftime': '2019-09-26 21:11:50', 'context': '【浙江省绍兴市诸暨市】 已发出 下一站 【杭州转运中心】', 'location': ''}, {'time': '2019-09-26 20:00:29', 'ftime': '2019-09-26 20:00:29', 'context': '【浙江省绍兴市诸暨市公司】 已打包', 'location': ''}, {'time': '2019-09-26 19:50:20', 'ftime': '2019-09-26 19:50:20', 'context': '【浙江省绍兴市诸暨市公司】 已收件 取件人: 郑志芬 (18858586101)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-20 10:24:12', 'ftime': '2018-09-20 10:24:12', 'context': '订单已由门卫代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-09-20 08:21:02', 'ftime': '2018-09-20 08:21:02', 'context': '配送员开始配送，请您准备收货，配送员，刘国成，手机号，13677265275或65529536', 'location': None}, {'time': '2018-09-20 06:38:52', 'ftime': '2018-09-20 06:38:52', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-09-20 06:38:51', 'ftime': '2018-09-20 06:38:51', 'context': '货物已到达【武汉佳园站】', 'location': None}, {'time': '2018-09-19 19:40:10', 'ftime': '2018-09-19 19:40:10', 'context': '货物已完成分拣，离开【武汉明阳分拣中心】', 'location': None}, {'time': '2018-09-19 19:16:30', 'ftime': '2018-09-19 19:16:30', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-09-19 19:16:30', 'ftime': '2018-09-19 19:16:30', 'context': '货物已到达【武汉明阳分拣中心】', 'location': None}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.07414999999999999</v>
+        <v>0.074766</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.009705</v>
+        <v>0.010629</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-11 10:28:27', 'context': '查无结果', 'ftime': '2019-09-11 10:28:27'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 16:10:56', 'context': '查无结果', 'ftime': '2019-09-19 16:10:56'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.068216</v>
+        <v>0.072506</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010026</v>
+        <v>0.010007</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 19:04:24', 'ftime': '2019-09-28 19:04:24', 'context': '[沈阳市]到沈阳市【沈阳大东十七部集货点】', 'location': None}, {'time': '2019-09-28 18:48:02', 'ftime': '2019-09-28 18:48:02', 'context': '[沈阳市]沈阳市【沈阳大东十八部】，【徐文强/13889362401】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-20 14:53:38', 'ftime': '2018-09-20 14:53:38', 'context': '[珠海市]珠海市【珠海南屏分部】，东风街 已签收', 'location': None}, {'time': '2018-09-20 09:13:38', 'ftime': '2018-09-20 09:13:38', 'context': '[珠海市]珠海市【珠海南屏分部】，【洪湾分部/13680365691】正在派件', 'location': None}, {'time': '2018-09-20 09:12:38', 'ftime': '2018-09-20 09:12:38', 'context': '[珠海市]到珠海市【珠海南屏分部】', 'location': None}, {'time': '2018-09-19 13:07:04', 'ftime': '2018-09-19 13:07:04', 'context': '[珠海市]到珠海市【珠海南屏分部】', 'location': None}, {'time': '2018-09-19 09:35:57', 'ftime': '2018-09-19 09:35:57', 'context': '[珠海市]珠海市【珠海集散中心】，正发往【珠海南屏分部】', 'location': None}, {'time': '2018-09-19 08:55:53', 'ftime': '2018-09-19 08:55:53', 'context': '[珠海市]到珠海市【珠海集散中心】', 'location': None}, {'time': '2018-09-19 05:12:09', 'ftime': '2018-09-19 05:12:09', 'context': '[中山市]中山市【中山转运中心】，正发往【珠海集散中心】', 'location': None}, {'time': '2018-09-19 02:42:39', 'ftime': '2018-09-19 02:42:39', 'context': '[中山市]到中山市【中山转运中心】', 'location': None}, {'time': '2018-09-18 19:59:23', 'ftime': '2018-09-18 19:59:23', 'context': '[江门市]江门市【台山】，【黄海旋/18138017737】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.069151</v>
+        <v>0.074502</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010745</v>
+        <v>0.009763000000000001</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:28:27', 'context': '查无结果', 'ftime': '2019-09-10 10:28:27'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:10:56', 'context': '查无结果', 'ftime': '2019-09-09 16:10:56'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.071481</v>
+        <v>0.06594999999999999</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.009963</v>
+        <v>0.010026</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:46:15', 'ftime': '2019-09-29 08:46:15', 'context': '【大连市】 快件已到达 【大连瓦房店】（15541169255、18642698410）,业务员 王为滨15842445070（15842445070） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 01:56:29', 'ftime': '2019-09-29 01:56:29', 'context': '【大连市】 快件离开 【大连】 已发往 【大连瓦房店】', 'location': ''}, {'time': '2019-09-28 13:59:58', 'ftime': '2019-09-28 13:59:58', 'context': '【大连市】 快件已经到达 【大连】', 'location': ''}, {'time': '2019-09-26 06:00:55', 'ftime': '2019-09-26 06:00:55', 'context': '【广州市】 快件离开 【广州中心】 已发往 【大连】', 'location': ''}, {'time': '2019-09-26 05:58:52', 'ftime': '2019-09-26 05:58:52', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-09-26 02:46:01', 'ftime': '2019-09-26 02:46:01', 'context': '【广州市】 快件离开 【广州滨江】 已发往 【大连】', 'location': ''}, {'time': '2019-09-25 23:13:47', 'ftime': '2019-09-25 23:13:47', 'context': '【广州市】 【广州滨江】（020-22505282） 的 事业部-黄庆辉s（15917434587） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 16:10:56', 'context': '查无结果', 'ftime': '2019-09-08 16:10:56'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.074465</v>
+        <v>0.065137</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.009242</v>
+        <v>0.010652</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 10:28:27', 'context': '查无结果', 'ftime': '2019-09-19 10:28:27'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 02:50:21', 'ftime': '2019-09-29 02:50:21', 'context': '到达：【河南漯河分拨中心】正发往：【河南平顶山新华快运公司】', 'location': ''}, {'time': '2019-09-28 10:47:57', 'ftime': '2019-09-28 10:47:57', 'context': '到达：【河南漯河分拨中心】上级网点【河南郑州分拨中心】', 'location': ''}, {'time': '2019-09-28 05:37:10', 'ftime': '2019-09-28 05:37:10', 'context': '到达：【河南郑州分拨中心】正发往：【河南漯河分拨中心】', 'location': ''}, {'time': '2019-09-28 04:31:43', 'ftime': '2019-09-28 04:31:43', 'context': '到达：【河南郑州分拨中心】上级网点【广东中山分拨中心】', 'location': ''}, {'time': '2019-09-27 00:09:51', 'ftime': '2019-09-27 00:09:51', 'context': '到达：【广东中山分拨中心】正发往：【河南郑州分拨中心】', 'location': ''}, {'time': '2019-09-26 21:46:03', 'ftime': '2019-09-26 21:46:03', 'context': '到达：【广东中山分拨中心】上级网点【广东中山东凤快运公司永益分部】', 'location': ''}, {'time': '2019-09-26 20:49:42', 'ftime': '2019-09-26 20:49:42', 'context': '到达：【广东中山东凤快运公司永益分部】正发往：【广东中山分拨中心】', 'location': ''}, {'time': '2019-09-26 20:04:56', 'ftime': '2019-09-26 20:04:56', 'context': '已开单:【广东中山东凤快运公司永益分部】开单员是:毛新明', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.063869</v>
+        <v>0.07205</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.008240000000000001</v>
+        <v>0.009939</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (6).xlsx
+++ b/data_excel/接口测试用例_ (6).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -40,34 +40,6 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -127,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,6 +110,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -486,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -501,8 +487,9 @@
     <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
     <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.375" customWidth="1" style="4" min="9" max="11"/>
+    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="2">
@@ -543,20 +530,25 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -608,18 +600,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 12:08:23', 'ftime': '2019-09-29 12:08:23', 'context': '【莞城】的【莞城】已收件', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.076727</v>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 15:32:43', 'ftime': '2019-10-08 15:32:43', 'context': '辽宁大连马栏公司-交通大学代理点(13029443168)-派件中', 'location': ''}, {'time': '2019-10-08 10:44:29', 'ftime': '2019-10-08 10:44:29', 'context': '已到达-辽宁大连马栏公司', 'location': ''}, {'time': '2019-10-08 03:38:02', 'ftime': '2019-10-08 03:38:02', 'context': '辽宁大连分拨中心-已发往-辽宁大连马栏公司', 'location': ''}, {'time': '2019-10-08 03:16:51', 'ftime': '2019-10-08 03:16:51', 'context': '已到达-辽宁大连分拨中心', 'location': ''}, {'time': '2019-10-08 03:16:51', 'ftime': '2019-10-08 03:16:51', 'context': '快件已在【辽宁大连分拨中心】进行卸车，扫描员【进港卸货】', 'location': ''}, {'time': '2019-10-07 00:57:53', 'ftime': '2019-10-07 00:57:53', 'context': '上海航空部-已装袋发往-辽宁大连分拨中心', 'location': ''}, {'time': '2019-10-07 00:57:53', 'ftime': '2019-10-07 00:57:53', 'context': '上海航空部-已进行装车扫描', 'location': ''}, {'time': '2019-10-07 00:57:49', 'ftime': '2019-10-07 00:57:49', 'context': '上海航空部-已装袋发往-辽宁大连分拨中心', 'location': ''}, {'time': '2019-10-07 00:52:13', 'ftime': '2019-10-07 00:52:13', 'context': '已到达-上海航空部', 'location': ''}, {'time': '2019-10-07 00:52:13', 'ftime': '2019-10-07 00:52:13', 'context': '快件已在【上海航空部】进行卸车，扫描员【徐鹏涛】', 'location': ''}, {'time': '2019-10-06 22:30:29', 'ftime': '2019-10-06 22:30:29', 'context': '上海闵行公司-已装袋发往-上海航空部', 'location': ''}, {'time': '2019-10-06 22:30:29', 'ftime': '2019-10-06 22:30:29', 'context': '上海闵行公司-已进行装车扫描', 'location': ''}, {'time': '2019-10-06 22:27:10', 'ftime': '2019-10-06 22:27:10', 'context': '上海闵行公司-已发往-上海航空部', 'location': ''}, {'time': '2019-10-06 22:27:10', 'ftime': '2019-10-06 22:27:10', 'context': '上海闵行公司-已进行装袋扫描', 'location': ''}, {'time': '2019-10-06 22:04:00', 'ftime': '2019-10-06 22:04:00', 'context': '上海闵行公司-上海闵行马桥镇服务点-已收件', 'location': ''}, {'time': '2019-10-06 05:51:28', 'ftime': '2019-10-06 05:51:28', 'context': '上海闵行马桥镇服务点-小李(17432115437)-已收件', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J2" s="3" t="n">
+        <v>0.082221</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -669,22 +666,15 @@
       <c r="G3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.009776</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" ht="39.95" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -723,18 +713,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 16:10:55', 'context': '查无结果', 'ftime': '2019-09-08 16:10:55'}]}</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.075043</v>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:30:25', 'ftime': '2019-10-08 06:30:25', 'context': '【虎门转运中心】 已发出 下一站 【盘锦转运中心】', 'location': None}, {'time': '2019-10-08 06:27:38', 'ftime': '2019-10-08 06:27:38', 'context': '【虎门转运中心公司】 已收入', 'location': None}, {'time': '2019-10-08 03:06:20', 'ftime': '2019-10-08 03:06:20', 'context': '【广州转运中心】 已发出 下一站 【虎门转运中心】', 'location': None}, {'time': '2019-10-08 03:00:31', 'ftime': '2019-10-08 03:00:31', 'context': '【广州转运中心公司】 已收入', 'location': None}, {'time': '2019-10-08 01:13:55', 'ftime': '2019-10-08 01:13:55', 'context': '【广东省广州市荔湾区光复路】 已发出 下一站 【广州转运中心】', 'location': None}, {'time': '2019-10-08 00:21:34', 'ftime': '2019-10-08 00:21:34', 'context': '【广东省广州市荔湾区光复路公司】 已打包', 'location': None}, {'time': '2019-10-07 23:25:01', 'ftime': '2019-10-07 23:25:01', 'context': '【广东省广州市荔湾区光复路公司】 已收件 取件人: 廖燕玲 (13428893464)', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J4" s="3" t="n">
+        <v>0.067982</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -775,22 +770,15 @@
       <c r="G5" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.010303</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" ht="39.95" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -829,18 +817,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 19:29:35', 'ftime': '2019-09-28 19:29:35', 'context': '【烟台转运中心】 已发出 下一站 【上海转运中心】', 'location': ''}, {'time': '2019-09-28 19:27:37', 'ftime': '2019-09-28 19:27:37', 'context': '【烟台转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 16:08:03', 'ftime': '2019-09-28 16:08:03', 'context': '【山东省威海市】 已发出 下一站 【烟台转运中心】', 'location': ''}, {'time': '2019-09-28 09:32:14', 'ftime': '2019-09-28 09:32:14', 'context': '【山东省威海市公司】 已打包', 'location': ''}, {'time': '2019-09-28 08:11:21', 'ftime': '2019-09-28 08:11:21', 'context': '【山东省威海市公司】 已收件 取件人: 于华丽 (18663181258)', 'location': ''}, {'time': '2019-09-27 09:55:11', 'ftime': '2019-09-27 09:55:11', 'context': '威海,快件正在清关', 'location': ''}, {'time': '2019-09-27 08:09:34', 'ftime': '2019-09-27 08:09:34', 'context': '威海,班轮到港', 'location': ''}, {'time': '2019-09-26 17:40:56', 'ftime': '2019-09-26 17:40:56', 'context': '韩国仁川,班轮离港', 'location': ''}, {'time': '2019-09-26 15:33:41', 'ftime': '2019-09-26 15:33:41', 'context': '韩国仁川国际转运仓,上车扫描', 'location': ''}, {'time': '2019-09-26 11:24:29', 'ftime': '2019-09-26 11:24:29', 'context': '韩国仁川国际转运仓,已收入', 'location': ''}, {'time': '2019-09-26 08:39:30', 'ftime': '2019-09-26 08:39:30', 'context': '韩国首尔,已揽收', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.075277</v>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 23:04:46', 'ftime': '2019-10-07 23:04:46', 'context': '【金华市】 快件离开 【金华中转部】 已发往 【北京】', 'location': None}, {'time': '2019-10-07 23:02:00', 'ftime': '2019-10-07 23:02:00', 'context': '【金华市】 快件已经到达 【金华中转部】', 'location': None}, {'time': '2019-10-07 21:27:52', 'ftime': '2019-10-07 21:27:52', 'context': '【金华市】 快件离开 【义乌荷叶塘】 已发往 【北京】', 'location': None}, {'time': '2019-10-07 21:25:37', 'ftime': '2019-10-07 21:25:37', 'context': '【金华市】 【义乌荷叶塘】（0579-85213093） 的 荷叶塘（18906898805） 已揽收', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J6" s="3" t="n">
+        <v>0.075266</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -881,22 +874,15 @@
       <c r="G7" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.009797</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8" ht="39.95" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -935,18 +921,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-20 10:24:12', 'ftime': '2018-09-20 10:24:12', 'context': '订单已由门卫代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-09-20 08:21:02', 'ftime': '2018-09-20 08:21:02', 'context': '配送员开始配送，请您准备收货，配送员，刘国成，手机号，13677265275或65529536', 'location': None}, {'time': '2018-09-20 06:38:52', 'ftime': '2018-09-20 06:38:52', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-09-20 06:38:51', 'ftime': '2018-09-20 06:38:51', 'context': '货物已到达【武汉佳园站】', 'location': None}, {'time': '2018-09-19 19:40:10', 'ftime': '2018-09-19 19:40:10', 'context': '货物已完成分拣，离开【武汉明阳分拣中心】', 'location': None}, {'time': '2018-09-19 19:16:30', 'ftime': '2018-09-19 19:16:30', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-09-19 19:16:30', 'ftime': '2018-09-19 19:16:30', 'context': '货物已到达【武汉明阳分拣中心】', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.074766</v>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-07 16:42:56', 'ftime': '2019-10-07 16:42:56', 'context': '【漳州市】 【漳州南靖】（0596-7826676、0596-7841477） 的 韩珠卿（15345065351） 已揽收', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J8" s="3" t="n">
+        <v>0.070393</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -987,22 +978,15 @@
       <c r="G9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.010629</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10" ht="39.95" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -1041,18 +1025,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 16:10:56', 'context': '查无结果', 'ftime': '2019-09-19 16:10:56'}]}</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.072506</v>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-13 16:34:48', 'context': '查无结果', 'ftime': '2019-09-13 16:34:48'}]}</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n">
+        <v>0.068899</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1093,22 +1082,15 @@
       <c r="G11" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.010007</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" ht="39.95" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
@@ -1156,18 +1138,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-20 14:53:38', 'ftime': '2018-09-20 14:53:38', 'context': '[珠海市]珠海市【珠海南屏分部】，东风街 已签收', 'location': None}, {'time': '2018-09-20 09:13:38', 'ftime': '2018-09-20 09:13:38', 'context': '[珠海市]珠海市【珠海南屏分部】，【洪湾分部/13680365691】正在派件', 'location': None}, {'time': '2018-09-20 09:12:38', 'ftime': '2018-09-20 09:12:38', 'context': '[珠海市]到珠海市【珠海南屏分部】', 'location': None}, {'time': '2018-09-19 13:07:04', 'ftime': '2018-09-19 13:07:04', 'context': '[珠海市]到珠海市【珠海南屏分部】', 'location': None}, {'time': '2018-09-19 09:35:57', 'ftime': '2018-09-19 09:35:57', 'context': '[珠海市]珠海市【珠海集散中心】，正发往【珠海南屏分部】', 'location': None}, {'time': '2018-09-19 08:55:53', 'ftime': '2018-09-19 08:55:53', 'context': '[珠海市]到珠海市【珠海集散中心】', 'location': None}, {'time': '2018-09-19 05:12:09', 'ftime': '2018-09-19 05:12:09', 'context': '[中山市]中山市【中山转运中心】，正发往【珠海集散中心】', 'location': None}, {'time': '2018-09-19 02:42:39', 'ftime': '2018-09-19 02:42:39', 'context': '[中山市]到中山市【中山转运中心】', 'location': None}, {'time': '2018-09-18 19:59:23', 'ftime': '2018-09-18 19:59:23', 'context': '[江门市]江门市【台山】，【黄海旋/18138017737】已揽收', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.074502</v>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 22:15:35', 'ftime': '2019-10-07 22:15:35', 'context': '[黑龙江哈尔滨分拨中心]从站点发出，本次转运目的地：黑龙江大庆公司', 'location': None}, {'time': '2019-10-07 22:12:14', 'ftime': '2019-10-07 22:12:14', 'context': '[黑龙江哈尔滨分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-07 17:04:58', 'ftime': '2019-10-07 17:04:58', 'context': '[黑龙江哈尔滨呼兰区公司]进行揽件扫描', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J12" s="3" t="n">
+        <v>0.07217700000000001</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1217,22 +1204,15 @@
       <c r="G13" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.009763000000000001</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14" ht="39.95" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
@@ -1280,18 +1260,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:10:56', 'context': '查无结果', 'ftime': '2019-09-09 16:10:56'}]}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.06594999999999999</v>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-13 16:34:49', 'context': '查无结果', 'ftime': '2019-09-13 16:34:49'}]}</t>
+        </is>
       </c>
       <c r="J14" s="3" t="n">
+        <v>0.06426</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1332,22 +1317,15 @@
       <c r="G15" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.010026</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16" ht="39.95" customHeight="1" s="2">
       <c r="A16" s="3" t="n">
@@ -1386,18 +1364,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 16:10:56', 'context': '查无结果', 'ftime': '2019-09-08 16:10:56'}]}</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.065137</v>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 16:34:49', 'context': '查无结果', 'ftime': '2019-09-19 16:34:49'}]}</t>
+        </is>
       </c>
       <c r="J16" s="3" t="n">
+        <v>0.066258</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1438,22 +1421,15 @@
       <c r="G17" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.010652</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" s="2">
       <c r="A18" s="3" t="n">
@@ -1501,18 +1477,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 02:50:21', 'ftime': '2019-09-29 02:50:21', 'context': '到达：【河南漯河分拨中心】正发往：【河南平顶山新华快运公司】', 'location': ''}, {'time': '2019-09-28 10:47:57', 'ftime': '2019-09-28 10:47:57', 'context': '到达：【河南漯河分拨中心】上级网点【河南郑州分拨中心】', 'location': ''}, {'time': '2019-09-28 05:37:10', 'ftime': '2019-09-28 05:37:10', 'context': '到达：【河南郑州分拨中心】正发往：【河南漯河分拨中心】', 'location': ''}, {'time': '2019-09-28 04:31:43', 'ftime': '2019-09-28 04:31:43', 'context': '到达：【河南郑州分拨中心】上级网点【广东中山分拨中心】', 'location': ''}, {'time': '2019-09-27 00:09:51', 'ftime': '2019-09-27 00:09:51', 'context': '到达：【广东中山分拨中心】正发往：【河南郑州分拨中心】', 'location': ''}, {'time': '2019-09-26 21:46:03', 'ftime': '2019-09-26 21:46:03', 'context': '到达：【广东中山分拨中心】上级网点【广东中山东凤快运公司永益分部】', 'location': ''}, {'time': '2019-09-26 20:49:42', 'ftime': '2019-09-26 20:49:42', 'context': '到达：【广东中山东凤快运公司永益分部】正发往：【广东中山分拨中心】', 'location': ''}, {'time': '2019-09-26 20:04:56', 'ftime': '2019-09-26 20:04:56', 'context': '已开单:【广东中山东凤快运公司永益分部】开单员是:毛新明', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.07205</v>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-28 16:34:49', 'context': '查无结果', 'ftime': '2019-09-28 16:34:49'}]}</t>
+        </is>
       </c>
       <c r="J18" s="3" t="n">
+        <v>0.067625</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1562,26 +1543,32 @@
       <c r="G19" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.009939</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row r="20" ht="39.95" customHeight="1" s="2"/>
     <row r="21" ht="39.95" customHeight="1" s="2"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"K,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>

--- a/data_excel/接口测试用例_ (6).xlsx
+++ b/data_excel/接口测试用例_ (6).xlsx
@@ -607,11 +607,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 15:32:43', 'ftime': '2019-10-08 15:32:43', 'context': '辽宁大连马栏公司-交通大学代理点(13029443168)-派件中', 'location': ''}, {'time': '2019-10-08 10:44:29', 'ftime': '2019-10-08 10:44:29', 'context': '已到达-辽宁大连马栏公司', 'location': ''}, {'time': '2019-10-08 03:38:02', 'ftime': '2019-10-08 03:38:02', 'context': '辽宁大连分拨中心-已发往-辽宁大连马栏公司', 'location': ''}, {'time': '2019-10-08 03:16:51', 'ftime': '2019-10-08 03:16:51', 'context': '已到达-辽宁大连分拨中心', 'location': ''}, {'time': '2019-10-08 03:16:51', 'ftime': '2019-10-08 03:16:51', 'context': '快件已在【辽宁大连分拨中心】进行卸车，扫描员【进港卸货】', 'location': ''}, {'time': '2019-10-07 00:57:53', 'ftime': '2019-10-07 00:57:53', 'context': '上海航空部-已装袋发往-辽宁大连分拨中心', 'location': ''}, {'time': '2019-10-07 00:57:53', 'ftime': '2019-10-07 00:57:53', 'context': '上海航空部-已进行装车扫描', 'location': ''}, {'time': '2019-10-07 00:57:49', 'ftime': '2019-10-07 00:57:49', 'context': '上海航空部-已装袋发往-辽宁大连分拨中心', 'location': ''}, {'time': '2019-10-07 00:52:13', 'ftime': '2019-10-07 00:52:13', 'context': '已到达-上海航空部', 'location': ''}, {'time': '2019-10-07 00:52:13', 'ftime': '2019-10-07 00:52:13', 'context': '快件已在【上海航空部】进行卸车，扫描员【徐鹏涛】', 'location': ''}, {'time': '2019-10-06 22:30:29', 'ftime': '2019-10-06 22:30:29', 'context': '上海闵行公司-已装袋发往-上海航空部', 'location': ''}, {'time': '2019-10-06 22:30:29', 'ftime': '2019-10-06 22:30:29', 'context': '上海闵行公司-已进行装车扫描', 'location': ''}, {'time': '2019-10-06 22:27:10', 'ftime': '2019-10-06 22:27:10', 'context': '上海闵行公司-已发往-上海航空部', 'location': ''}, {'time': '2019-10-06 22:27:10', 'ftime': '2019-10-06 22:27:10', 'context': '上海闵行公司-已进行装袋扫描', 'location': ''}, {'time': '2019-10-06 22:04:00', 'ftime': '2019-10-06 22:04:00', 'context': '上海闵行公司-上海闵行马桥镇服务点-已收件', 'location': ''}, {'time': '2019-10-06 05:51:28', 'ftime': '2019-10-06 05:51:28', 'context': '上海闵行马桥镇服务点-小李(17432115437)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 17:52:30', 'ftime': '2019-10-07 17:52:30', 'context': '[海西蒙古族藏族自治州]海西蒙古族藏族自治州【格尔木】，正发往【西宁分拨集货点】', 'location': '海西蒙古族藏族自治州'}, {'time': '2019-10-07 17:44:10', 'ftime': '2019-10-07 17:44:10', 'context': '[海西蒙古族藏族自治州]到海西蒙古族藏族自治州【格尔木】', 'location': '海西蒙古族藏族自治州'}, {'time': '2019-10-06 18:49:25', 'ftime': '2019-10-06 18:49:25', 'context': '[海西蒙古族藏族自治州]海西蒙古族藏族自治州【格尔木002】，【汪延花/18897096865】已揽收', 'location': '海西蒙古族藏族自治州'}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.082221</v>
+        <v>0.081105</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -720,11 +720,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:30:25', 'ftime': '2019-10-08 06:30:25', 'context': '【虎门转运中心】 已发出 下一站 【盘锦转运中心】', 'location': None}, {'time': '2019-10-08 06:27:38', 'ftime': '2019-10-08 06:27:38', 'context': '【虎门转运中心公司】 已收入', 'location': None}, {'time': '2019-10-08 03:06:20', 'ftime': '2019-10-08 03:06:20', 'context': '【广州转运中心】 已发出 下一站 【虎门转运中心】', 'location': None}, {'time': '2019-10-08 03:00:31', 'ftime': '2019-10-08 03:00:31', 'context': '【广州转运中心公司】 已收入', 'location': None}, {'time': '2019-10-08 01:13:55', 'ftime': '2019-10-08 01:13:55', 'context': '【广东省广州市荔湾区光复路】 已发出 下一站 【广州转运中心】', 'location': None}, {'time': '2019-10-08 00:21:34', 'ftime': '2019-10-08 00:21:34', 'context': '【广东省广州市荔湾区光复路公司】 已打包', 'location': None}, {'time': '2019-10-07 23:25:01', 'ftime': '2019-10-07 23:25:01', 'context': '【广东省广州市荔湾区光复路公司】 已收件 取件人: 廖燕玲 (13428893464)', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 13:52:02', 'ftime': '2019-09-28 13:52:02', 'context': '[株洲市]株洲市【醴陵】，包裹已送到了，有问题请联系我13873347038 已签收', 'location': '株洲市'}, {'time': '2019-09-28 09:17:16', 'ftime': '2019-09-28 09:17:16', 'context': '[株洲市]株洲市【醴陵】，【宋才春/13873347038】正在派件', 'location': '株洲市'}, {'time': '2019-09-28 09:16:16', 'ftime': '2019-09-28 09:16:16', 'context': '[株洲市]到株洲市【醴陵】', 'location': '株洲市'}, {'time': '2019-09-28 01:13:46', 'ftime': '2019-09-28 01:13:46', 'context': '[长沙市]长沙市【长沙转运中心】，正发往【醴陵】', 'location': '长沙市'}, {'time': '2019-09-28 01:11:01', 'ftime': '2019-09-28 01:11:01', 'context': '[长沙市]到长沙市【长沙转运中心】', 'location': '长沙市'}, {'time': '2019-09-27 00:35:48', 'ftime': '2019-09-27 00:35:48', 'context': '[石家庄市]石家庄市【石家庄转运中心】，正发往【长沙转运中心】', 'location': '石家庄市'}, {'time': '2019-09-27 00:32:49', 'ftime': '2019-09-27 00:32:49', 'context': '[石家庄市]到石家庄市【石家庄转运中心】', 'location': '石家庄市'}, {'time': '2019-09-26 08:50:08', 'ftime': '2019-09-26 08:50:08', 'context': '[石家庄市]石家庄市【深泽】，【赵郑/13393016011】已揽收', 'location': '石家庄市'}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.067982</v>
+        <v>0.074477</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 23:04:46', 'ftime': '2019-10-07 23:04:46', 'context': '【金华市】 快件离开 【金华中转部】 已发往 【北京】', 'location': None}, {'time': '2019-10-07 23:02:00', 'ftime': '2019-10-07 23:02:00', 'context': '【金华市】 快件已经到达 【金华中转部】', 'location': None}, {'time': '2019-10-07 21:27:52', 'ftime': '2019-10-07 21:27:52', 'context': '【金华市】 快件离开 【义乌荷叶塘】 已发往 【北京】', 'location': None}, {'time': '2019-10-07 21:25:37', 'ftime': '2019-10-07 21:25:37', 'context': '【金华市】 【义乌荷叶塘】（0579-85213093） 的 荷叶塘（18906898805） 已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-22 16:54:53', 'context': '查无结果', 'ftime': '2019-09-22 16:54:53'}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.075266</v>
+        <v>0.062615</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -928,11 +928,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-07 16:42:56', 'ftime': '2019-10-07 16:42:56', 'context': '【漳州市】 【漳州南靖】（0596-7826676、0596-7841477） 的 韩珠卿（15345065351） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 00:21:21', 'ftime': '2019-10-08 00:21:21', 'context': '【虎门转运中心】 已发出 下一站 【临沂转运中心】', 'location': ''}, {'time': '2019-10-08 00:17:01', 'ftime': '2019-10-08 00:17:01', 'context': '【虎门转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-07 22:52:19', 'ftime': '2019-10-07 22:52:19', 'context': '【广东省东莞市建包中心】 已发出 下一站 【虎门转运中心】', 'location': ''}, {'time': '2019-10-07 22:48:51', 'ftime': '2019-10-07 22:48:51', 'context': '【广东省东莞市建包中心公司】 已打包', 'location': ''}, {'time': '2019-10-07 21:42:18', 'ftime': '2019-10-07 21:42:18', 'context': '【广东省东莞市建包中心公司】 已收入', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.070393</v>
+        <v>0.069824</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-13 16:34:48', 'context': '查无结果', 'ftime': '2019-09-13 16:34:48'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 14:04:11', 'ftime': '2019-10-08 14:04:11', 'context': '由【黎世杰】,扫描发往 【华南中心】', 'location': None}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.068899</v>
+        <v>0.075461</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 22:15:35', 'ftime': '2019-10-07 22:15:35', 'context': '[黑龙江哈尔滨分拨中心]从站点发出，本次转运目的地：黑龙江大庆公司', 'location': None}, {'time': '2019-10-07 22:12:14', 'ftime': '2019-10-07 22:12:14', 'context': '[黑龙江哈尔滨分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-07 17:04:58', 'ftime': '2019-10-07 17:04:58', 'context': '[黑龙江哈尔滨呼兰区公司]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 10:09:10', 'ftime': '2019-10-08 10:09:10', 'context': '订单已由本人签收，感谢您在京东购物，欢迎您再次光临！', 'location': ''}, {'time': '2019-10-08 08:14:25', 'ftime': '2019-10-08 08:14:25', 'context': '配送员开始配送，请您准备收货，配送员，付朗，手机号，15072823033', 'location': ''}, {'time': '2019-10-08 07:39:21', 'ftime': '2019-10-08 07:39:21', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-10-08 07:39:20', 'ftime': '2019-10-08 07:39:20', 'context': '货物已到达【武汉长丰营业部】', 'location': ''}, {'time': '2019-10-08 00:54:27', 'ftime': '2019-10-08 00:54:27', 'context': '货物已完成分拣，离开【武汉明阳分拣中心】', 'location': ''}, {'time': '2019-10-07 20:11:39', 'ftime': '2019-10-07 20:11:39', 'context': '货物已到达【武汉明阳分拣中心】', 'location': ''}, {'time': '2019-10-07 02:56:09', 'ftime': '2019-10-07 02:56:09', 'context': '货物已完成分拣，离开【广州白云分拣中心】', 'location': ''}, {'time': '2019-10-07 01:15:38', 'ftime': '2019-10-07 01:15:38', 'context': '货物已完成分拣，离开【广州黄埔分拣中心】', 'location': ''}, {'time': '2019-10-07 00:46:20', 'ftime': '2019-10-07 00:46:20', 'context': '货物已到达【广州黄埔分拣中心】', 'location': ''}, {'time': '2019-10-06 21:10:16', 'ftime': '2019-10-06 21:10:16', 'context': '货物已完成分拣，离开【惠州惠阳分拣中心】', 'location': ''}, {'time': '2019-10-05 18:39:08', 'ftime': '2019-10-05 18:39:08', 'context': '受国庆假期影响，您的快递可能会延迟配送，请您耐心等待;', 'location': ''}, {'time': '2019-10-05 18:39:04', 'ftime': '2019-10-05 18:39:04', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-10-05 18:39:04', 'ftime': '2019-10-05 18:39:04', 'context': '配送员甘立江已经揽收完成', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.07217700000000001</v>
+        <v>0.07592</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1267,11 +1267,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-13 16:34:49', 'context': '查无结果', 'ftime': '2019-09-13 16:34:49'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-08 16:54:53', 'context': '查无结果', 'ftime': '2019-10-08 16:54:53'}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.06426</v>
+        <v>0.069075</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1371,11 +1371,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 16:34:49', 'context': '查无结果', 'ftime': '2019-09-19 16:34:49'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-14 16:54:53', 'context': '查无结果', 'ftime': '2019-09-14 16:54:53'}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.066258</v>
+        <v>0.068162</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-28 16:34:49', 'context': '查无结果', 'ftime': '2019-09-28 16:34:49'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 12:16:00', 'ftime': '2019-10-08 12:16:00', 'context': '【东莞市】 快件离开 【东莞中心】 已发往 【广州中心】', 'location': None}, {'time': '2019-10-08 12:07:13', 'ftime': '2019-10-08 12:07:13', 'context': '【东莞市】 快件已经到达 【东莞中心】', 'location': None}, {'time': '2019-10-07 00:20:33', 'ftime': '2019-10-07 00:20:33', 'context': '【保定市】 快件离开 【保定中转】 已发往 【东莞中心】', 'location': None}, {'time': '2019-10-07 00:19:32', 'ftime': '2019-10-07 00:19:32', 'context': '【保定市】 快件已经到达 【保定中转】', 'location': None}, {'time': '2019-10-06 21:53:59', 'ftime': '2019-10-06 21:53:59', 'context': '【保定市】 快件离开 【高碑店白沟】 已发往 【广州中心】', 'location': None}, {'time': '2019-10-06 21:06:08', 'ftime': '2019-10-06 21:06:08', 'context': '【保定市】 【高碑店白沟】（0312-7938788） 的 总部业务员（18830210118） 已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.067625</v>
+        <v>0.07296900000000001</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
